--- a/test/newData/evol3.xlsx
+++ b/test/newData/evol3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27133dd454cbe6c8/Documents/Work/NetworkEvo/cloud-virtualization-network-reliabilty/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\博士生资料\项目\2020.7 NFV项目\项目文档\程序\cloud-virtualization-network-reliabilty\test\newData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{1732DE5D-8490-1C45-85B0-AC33DC9A9D64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AE98522C-7443-6743-A1B1-438EF69C507F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8EAE4E-65AA-42E4-B845-546B7ED7C22C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="2520" windowWidth="27040" windowHeight="15540" xr2:uid="{0746C58D-5CB5-254A-89E5-A95BA2F1FF80}"/>
+    <workbookView xWindow="2243" yWindow="2520" windowWidth="27038" windowHeight="15540" xr2:uid="{0746C58D-5CB5-254A-89E5-A95BA2F1FF80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -102,14 +93,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>['V3', 'V6']</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>['V3','V6']</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>[5,5.5]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -118,7 +101,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>['V3']</t>
+    <t>['V2', 'V4']</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>['V2','V4']</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>['V2']</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -126,7 +117,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -213,7 +204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -229,7 +220,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -528,12 +519,12 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -555,7 +546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -566,18 +557,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -585,10 +576,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -599,7 +590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -610,7 +601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -621,7 +612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -632,9 +623,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -643,9 +634,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>5</v>
@@ -657,5 +648,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test/newData/evol3.xlsx
+++ b/test/newData/evol3.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\博士生资料\项目\2020.7 NFV项目\项目文档\程序\cloud-virtualization-network-reliabilty\test\newData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Think\Desktop\cloud-virtualization-network-reliabilty\test\newData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8EAE4E-65AA-42E4-B845-546B7ED7C22C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2243" yWindow="2520" windowWidth="27038" windowHeight="15540" xr2:uid="{0746C58D-5CB5-254A-89E5-A95BA2F1FF80}"/>
+    <workbookView xWindow="2250" yWindow="2520" windowWidth="27045" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>EvolTime</t>
   </si>
@@ -42,9 +41,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>['V1']</t>
-  </si>
-  <si>
     <t>[]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -87,37 +83,37 @@
   <si>
     <t>['S1','T1']</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>['V1']</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[5,5.5]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[5.5,5,8]</t>
+    <t>['V2', 'V4']</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>['V2','V4']</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>['V2']</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>['V2', 'V4']</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>['V2','V4']</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>['V2']</t>
+    <t>[5.5,5.8]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>['V1','V3']</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -515,16 +511,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EC4BA7-6346-7145-AF61-11B96870B522}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,114 +531,114 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/test/newData/evol3.xlsx
+++ b/test/newData/evol3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Think\Desktop\cloud-virtualization-network-reliabilty\test\newData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27133dd454cbe6c8/Documents/Work/NetworkEvo/cloud-virtualization-network-reliabilty/test/newData/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_8B6205A9EF6AFEFA3D248E0BD6A100E3DBD475EC" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E808F5F1-65E1-6547-A009-F1D1F621AE82}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2520" windowWidth="27045" windowHeight="15540"/>
+    <workbookView xWindow="1760" yWindow="2460" windowWidth="27040" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>EvolTime</t>
   </si>
@@ -106,13 +107,25 @@
   </si>
   <si>
     <t>['V1','V3']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6.2, 6.8]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>['Vs1']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5.9, 6.2]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -200,7 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -511,16 +524,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,6 +655,28 @@
       </c>
       <c r="C11" s="3" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/test/newData/evol3.xlsx
+++ b/test/newData/evol3.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27133dd454cbe6c8/Documents/Work/NetworkEvo/cloud-virtualization-network-reliabilty/test/newData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Think\Desktop\cloud-virtualization-network-reliabilty\test\newData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_8B6205A9EF6AFEFA3D248E0BD6A100E3DBD475EC" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E808F5F1-65E1-6547-A009-F1D1F621AE82}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="2460" windowWidth="27040" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="2460" windowWidth="27045" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>EvolTime</t>
   </si>
@@ -75,14 +74,6 @@
   </si>
   <si>
     <t>[4,5]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>['T1']</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>['S1','T1']</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -98,34 +89,46 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>['V2']</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[5.5,5.8]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>[6.2, 6.8]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>['Vs1']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5.9, 6.2]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>['S1','T2']</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>['V1','V3']</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[6.2, 6.8]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>['Vs1']</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5.9, 6.2]</t>
+    <t>['T2,S1']</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>['V1']</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -213,7 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -524,19 +527,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,7 +555,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -566,7 +569,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -574,7 +577,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -588,7 +591,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -607,7 +610,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
@@ -618,10 +621,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -632,37 +635,37 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
@@ -670,13 +673,13 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/test/newData/evol3.xlsx
+++ b/test/newData/evol3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>EvolTime</t>
   </si>
@@ -61,67 +61,35 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>['S1']</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>[3.5,3.6]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[3.6,4]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[4,5]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5,5.5]</t>
+    <t>[]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>['V2', 'V4']</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>['V2','V4']</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5.5,5.8]</t>
+    <t>['V1']</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[6.2, 6.8]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>['Vs1']</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5.9, 6.2]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>['S1','T2']</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>['V1','V3']</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>['T2,S1']</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]</t>
+    <t>['V3']</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>['V3','V1']</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>['V1']</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>['V3']</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -528,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
@@ -555,7 +523,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -569,7 +537,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -577,7 +545,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -588,98 +556,32 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
